--- a/QuanLyDuAnVer2/Report/Report_Sprint3.xlsx
+++ b/QuanLyDuAnVer2/Report/Report_Sprint3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenNhatTruong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenNhatTruong\Desktop\CNPMNC\QuanLyDuAnVer2\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A7C17-B664-4CFF-ADB6-BE8D5F46682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EE84C-FAE1-46AD-A66B-9BA7815164E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C421ADEF-550A-44C3-BAEB-FA6B6965BE38}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="110">
   <si>
     <t>Thực hiện chức năng Gợi ý sản phẩm/ đề xuất sản phẩm</t>
   </si>
@@ -242,12 +242,161 @@
   <si>
     <t>Chưa hoàn thành được chức năng, Dời sang sprint 4, đã hoàn thành ở bài cá nhân, không add được vào bài chính</t>
   </si>
+  <si>
+    <t>Mức độ hoàn thành</t>
+  </si>
+  <si>
+    <t>Khả năng làm việc</t>
+  </si>
+  <si>
+    <t>Độ khó chức năng</t>
+  </si>
+  <si>
+    <t>Mức độ hoàn thành(%)</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Thực hiện thanh toán trực tuyến</t>
+  </si>
+  <si>
+    <t>Vinh, Trường</t>
+  </si>
+  <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>Phân quyền</t>
+  </si>
+  <si>
+    <t>Đánh giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Bình luận</t>
+  </si>
+  <si>
+    <t>Thực hiện chức năng quản lý báo cáo từ người dùng</t>
+  </si>
+  <si>
+    <t>Tú</t>
+  </si>
+  <si>
+    <t>Thống kê dữ liệu</t>
+  </si>
+  <si>
+    <t>Thực hiện đánh giá sản phẩm theo chọn số sao.
+Tính được điểm trung bình số lần bình chọn
+Chưa xét quy định rõ ràng( chỉ những người mua hàng mới được đánh giá mà chỉ cần đăng nhập mới được đánh giá=&gt; thiếu logic)
+hoạt động tốt</t>
+  </si>
+  <si>
+    <t>Thực hiện bình luận trên sản phẩm.
+Hiển thị danh sách bình luận
+Chưa xét quy định rõ ràng( chỉ những người mua hàng mới được bình luận mà chỉ cần đăng nhập mới được bình luận=&gt; thiếu logic)
+hoạt động tốt</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành được chức năng, Dời sang sprint 5</t>
+  </si>
+  <si>
+    <t>Thực hiện thống kê theo dạng biểu đồ( chỉ mới thống kê theo số đơn hàng và doanh thu) chưa thật sự thống kê đầy đủ, sẽ hoàn thành và bổ sung thêm</t>
+  </si>
+  <si>
+    <t>Xuất được hóa đơn theo thông tin đơn hàng, thiết kế hóa đơn còn xấu.</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Scrum owner</t>
+  </si>
+  <si>
+    <t>Scrum master</t>
+  </si>
+  <si>
+    <t>Tính điểm</t>
+  </si>
+  <si>
+    <t>tốt</t>
+  </si>
+  <si>
+    <t>khá</t>
+  </si>
+  <si>
+    <t>tệ</t>
+  </si>
+  <si>
+    <t>75-100</t>
+  </si>
+  <si>
+    <t>50-74</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>&lt;2</t>
+  </si>
+  <si>
+    <t>Tổng điểm</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min </t>
+  </si>
+  <si>
+    <t>Quy định đánh giá</t>
+  </si>
+  <si>
+    <t>điểm scrum owner do scrum master đánh giá</t>
+  </si>
+  <si>
+    <t>điểm dev do scrum master đánh giá</t>
+  </si>
+  <si>
+    <t>điểm scrum master do scrum owner và các dev đánh giá</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>*Các chức năng làm chung</t>
+  </si>
+  <si>
+    <t>Thống nhất chia đều điểm
+vd max 3 điểm =&gt;3 thành viên, mỗi thành viên 1 điểm
+Nếu có thành viên không thực hiện đc phần nào tính điểm riêng</t>
+  </si>
+  <si>
+    <t>Chỉ được tính khi thực hiện được chức năng ( hoạt động khi add vào bài chính)</t>
+  </si>
+  <si>
+    <t>Thuận. Vinh, Tài, Tú</t>
+  </si>
+  <si>
+    <t>(hỗ trợ )1.5</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành được chức năng, Dời sang sprint 5, thực hiện lỗi khi thanh toán, chưa sử dụng được. ( vinh code chính, Trường phụ)</t>
+  </si>
+  <si>
+    <t>Phân quyền được giữa quản lý. Nhân viên</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +431,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +481,62 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -378,11 +605,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -407,7 +680,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,9 +692,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -434,14 +707,99 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,23 +1115,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED65FC0-C6BE-4A23-AAB8-60E82A67407A}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="38" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="129.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="152.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="68.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -801,43 +1174,136 @@
       <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
+      <c r="M1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+    </row>
+    <row r="2" spans="1:28" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58">
         <f>SUM(C4:C8,C10:C14,C16:C22)</f>
-        <v>56</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+        <v>51</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58">
         <f>SUM(I4:I8,I10:I14,I16:I22)</f>
-        <v>45.25</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+        <v>41.75</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="62"/>
+      <c r="U2" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="62"/>
+      <c r="X2" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" s="50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -845,7 +1311,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>25</v>
@@ -863,13 +1329,43 @@
         <v>27</v>
       </c>
       <c r="I4" s="3">
-        <v>9</v>
-      </c>
-      <c r="J4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="20">
+        <f>(I4/C4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28">
+        <v>3</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="55"/>
+      <c r="V4" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -880,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -897,11 +1393,51 @@
       <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="20">
+        <f t="shared" ref="J5:J31" si="0">(I5/C5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="M5" s="28">
+        <v>1</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="28">
+        <v>1</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>1</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="28"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" s="46"/>
+      <c r="X5" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -929,11 +1465,46 @@
       <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="M6" s="28">
+        <v>1</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="28">
+        <v>1</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>1</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="28"/>
+      <c r="T6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" s="50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -943,8 +1514,8 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
@@ -961,11 +1532,39 @@
       <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="46"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -975,8 +1574,8 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
@@ -993,32 +1592,85 @@
       <c r="I8" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28">
+        <v>2.75</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="47"/>
+      <c r="X8" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z9" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="AA9" s="57"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="29">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1039,18 +1691,51 @@
       <c r="I10" s="3">
         <v>1.75</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="K10" s="29">
+        <v>2</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="28"/>
+      <c r="V10" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z10" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AA10" s="57"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="29">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1071,18 +1756,46 @@
       <c r="I11" s="3">
         <v>1.5</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="29">
+        <v>2</v>
+      </c>
+      <c r="L11" s="21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="46"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="29">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1103,18 +1816,46 @@
       <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="46"/>
+      <c r="X12" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z12" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="29">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1135,18 +1876,46 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="29">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="28"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="46"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="29">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1167,11 +1936,39 @@
       <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="29">
+        <v>2</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="47"/>
+      <c r="X14" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z14" s="54"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>52</v>
       </c>
@@ -1184,8 +1981,25 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z15" s="54"/>
+    </row>
+    <row r="16" spans="1:28" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1213,11 +2027,41 @@
       <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" s="28"/>
+      <c r="V16" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="54"/>
+    </row>
+    <row r="17" spans="1:22" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1245,11 +2089,36 @@
       <c r="I17" s="6">
         <v>4</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="46"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -1271,11 +2140,32 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2</v>
+      </c>
+      <c r="L18" s="21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="M18" s="28">
+        <v>1</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="46"/>
+    </row>
+    <row r="19" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -1303,11 +2193,32 @@
       <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="28"/>
+      <c r="N19" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="46"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -1329,11 +2240,32 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
+      <c r="L20" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28">
+        <v>1</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" s="28"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="46"/>
+    </row>
+    <row r="21" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1359,13 +2291,34 @@
         <v>9</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="6" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" s="28"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="46"/>
+    </row>
+    <row r="22" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1390,31 +2343,538 @@
       <c r="H22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="11">
         <v>5</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5</v>
+      </c>
+      <c r="L22" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28">
+        <v>3</v>
+      </c>
+      <c r="T22" s="47"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="28">
+        <v>1</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="46"/>
+    </row>
+    <row r="26" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" s="28"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="46"/>
+    </row>
+    <row r="27" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>21</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28">
+        <v>2.25</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="46"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>22</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="24">
+        <v>45302</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="24">
+        <v>45302</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="28">
+        <v>1</v>
+      </c>
+      <c r="V28" s="46"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="24">
+        <v>45302</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="24">
+        <v>45302</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="46"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>13</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="27">
+        <v>45302</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="27">
+        <v>45302</v>
+      </c>
+      <c r="I30" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="25">
+        <v>2</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="28">
+        <v>1</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="46"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>15</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="27">
+        <v>45302</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <v>2</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28">
+        <v>1</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S31" s="28"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="47"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="18"/>
+    </row>
+    <row r="33" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L33" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33">
+        <f>SUM(M4:M8,M10:M14,M16:M22,M24:M31)</f>
+        <v>11.5</v>
+      </c>
+      <c r="O33">
+        <f>SUM(O4:O8,O10:O14,O16:O22,O24:O31)</f>
+        <v>16</v>
+      </c>
+      <c r="Q33">
+        <f>SUM(Q4:Q8,Q10:Q14,Q16:Q22,Q24:Q31)</f>
+        <v>13.75</v>
+      </c>
+      <c r="S33">
+        <f>SUM(S4:S8,S10:S14,S16:S22,S24:S31)</f>
+        <v>8.5</v>
+      </c>
+      <c r="U33">
+        <f>SUM(1.5,U10:U14,U16:U22,U24:U31)</f>
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A15:J15"/>
+  <mergeCells count="21">
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A32:V32"/>
+    <mergeCell ref="T24:T31"/>
+    <mergeCell ref="V24:V31"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M23:V23"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="V4:V8"/>
+    <mergeCell ref="V10:V14"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="T16:T22"/>
+    <mergeCell ref="V16:V22"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
